--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164680.58289205</v>
+        <v>1193524.893646777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564208</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>98.11554172172796</v>
       </c>
       <c r="U2" t="n">
-        <v>223.6642963754549</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>70.11928264603867</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.34508049624266</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y5" t="n">
-        <v>126.5988758341305</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>62.33263748886688</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.65893690886272</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>28.1011571445228</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,16 +1375,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>292.1380595743621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.1944522398487</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>163.8123107687586</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9.461970681989245</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>402.9927694103898</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>196.7218456862863</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>26.94389492651078</v>
+        <v>21.06378739764988</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>120.4202303616998</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>205.1478855987994</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>30.95117253761778</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>285.5453800016779</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>92.39479380343687</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>53.87467807705912</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.8721928563319</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>50.07167817132324</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.390346842435374</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>323.9918595228955</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>281.5496867510636</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H44" t="n">
-        <v>120.8576927221053</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>808.6937513590204</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C2" t="n">
-        <v>439.7312344186087</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>439.7312344186087</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036446</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2598.042483218497</v>
       </c>
       <c r="U2" t="n">
-        <v>2252.590892297907</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="V2" t="n">
-        <v>1921.528004954336</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="W2" t="n">
-        <v>1568.759349684222</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="X2" t="n">
-        <v>1195.293591423142</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="Y2" t="n">
-        <v>1195.293591423142</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940988</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117057</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,25 +4591,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.422847177208</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y5" t="n">
         <v>1964.5451948195</v>
@@ -4626,16 +4628,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="8">
@@ -4781,19 +4783,19 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1546.944160717209</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1188.678462110459</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E8" t="n">
-        <v>802.8902095122144</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F8" t="n">
-        <v>391.9043047226068</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4863,10 +4865,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
@@ -4875,7 +4877,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5066,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5139,28 +5141,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546.4805193761945</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C13" t="n">
-        <v>377.5443364482876</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D13" t="n">
-        <v>377.5443364482876</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E13" t="n">
-        <v>377.5443364482876</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F13" t="n">
-        <v>377.5443364482876</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.425425970681</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>951.4629090302697</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>593.1972104235191</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V14" t="n">
-        <v>1838.661061815299</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W14" t="n">
-        <v>1485.892406545185</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X14" t="n">
-        <v>1320.425425970681</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1320.425425970681</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T16" t="n">
-        <v>352.67413830922</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y16" t="n">
-        <v>63.50052796378793</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1568.149526959219</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1199.187010018807</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1199.187010018807</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1199.187010018807</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>788.2011052291998</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5516,16 +5518,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1958.288858935031</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1568.149526959219</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5613,22 +5615,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W19" t="n">
-        <v>274.7355609638946</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X19" t="n">
-        <v>274.7355609638946</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.959449965771</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C20" t="n">
-        <v>797.9969330253591</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D20" t="n">
-        <v>439.7312344186087</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.942981820364</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2669.933035536898</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="S20" t="n">
-        <v>2669.933035536898</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="T20" t="n">
-        <v>2669.933035536898</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="U20" t="n">
-        <v>2669.933035536898</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="V20" t="n">
-        <v>2669.933035536898</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="W20" t="n">
-        <v>2317.164380266784</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X20" t="n">
-        <v>1943.698622005704</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y20" t="n">
-        <v>1553.559290029893</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="21">
@@ -5850,7 +5852,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247703</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,52 +5989,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>536.6170209242687</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>536.6170209242687</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>281.9325327183818</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9325327183818</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2489.929004554789</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6224,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1584.823100673951</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6303,43 +6305,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>2471.7452186737</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.203741822953</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C29" t="n">
-        <v>1689.203741822953</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D29" t="n">
-        <v>1689.203741822953</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.415489224708</v>
+        <v>753.3585633793437</v>
       </c>
       <c r="F29" t="n">
-        <v>892.4295844351009</v>
+        <v>342.3726585897361</v>
       </c>
       <c r="G29" t="n">
-        <v>474.4657763332877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>147.2710563692906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X29" t="n">
-        <v>2465.942913862886</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y29" t="n">
-        <v>2075.803581887074</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6518,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>808.6937513590204</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C32" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.730224273719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.730224273719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.730224273719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.667336930148</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1958.898681660034</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1585.432923398954</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1195.293591423142</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>372.9958041606071</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>600.9853550586245</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>600.9853550586245</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>600.9853550586245</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>600.9853550586245</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>600.9853550586245</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X34" t="n">
-        <v>372.9958041606071</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y34" t="n">
-        <v>372.9958041606071</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1249.712458167646</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>880.7499412272343</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D35" t="n">
-        <v>522.4842426204839</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>522.4842426204839</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>522.4842426204839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>104.5204345186708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6971,16 +6973,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1639.851790143458</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1249.712458167646</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>398.3338608103787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>229.3976778824718</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>229.3976778824718</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>229.3976778824718</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>229.3976778824718</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>60.39787762080422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>60.39787762080422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7099,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>579.9823256406185</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X37" t="n">
-        <v>579.9823256406185</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y37" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1219.679656148628</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2369.884586449641</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1996.418828188561</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1606.27949621275</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7251,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7363,16 +7365,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.7452186737</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>2243.755667775683</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
         <v>2022.963088632153</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755378</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7494,10 +7496,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7600,19 +7602,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>443.7353612255621</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V43" t="n">
-        <v>443.7353612255621</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W43" t="n">
-        <v>443.7353612255621</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X43" t="n">
-        <v>443.7353612255621</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1331.061315312043</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.061315312043</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>972.7956167052923</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>587.007364107048</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F44" t="n">
-        <v>176.0214593174405</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G44" t="n">
-        <v>176.0214593174405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7679,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843237</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.527073573123</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1331.061315312043</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1331.061315312043</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>2277.64757683804</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8708,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.02694854156</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11376,7 +11378,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>118.3327786359298</v>
       </c>
       <c r="U2" t="n">
-        <v>27.55987113283442</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,25 +22710,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>75.30176537689258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555249</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y5" t="n">
-        <v>259.6390628219231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22951,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>83.08841053406437</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>403.1252331119323</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23179,28 +23181,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>117.3198908784084</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23239,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>89.79231049789968</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23306,7 +23308,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>147.4718178824608</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23318,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>3.115350019202168</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>27.53450764830092</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.9187899097105</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,13 +23670,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>146.7089181598059</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10.79140061040522</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23789,13 +23791,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690364</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>89.80115265030474</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27.53450764830092</v>
+        <v>33.41461517716185</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>144.2707130727111</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>234.2628112589831</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>35.43826180874018</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>13.43676775329538</v>
       </c>
     </row>
     <row r="26">
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>355.2867661184358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>63.37316471551387</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>128.2387900191171</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>59.53652244142438</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24892,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>120.5410347319124</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24974,10 +24976,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,7 +25125,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>86.27334609368704</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>79.2024603475752</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>273.8510945930339</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25211,10 +25213,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>128.5752749499028</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>25.24910919451753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>63.37316471551387</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25840,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>4.732187490914157</v>
+        <v>63.13204062090043</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H44" t="n">
-        <v>203.0650800422519</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25919,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26074,7 +26076,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.0104806616813</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>89.56002855569125</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731739.4345746958</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="C2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="D2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="E2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="D2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>289152.6100157577</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289152.6100157574</v>
       </c>
       <c r="G2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="H2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="I2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="J2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="K2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="I2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289152.6100157577</v>
-      </c>
       <c r="M2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="N2" t="n">
         <v>289152.6100157577</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157576</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>9371.018034361485</v>
       </c>
       <c r="C4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="D4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9371.018034361483</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9371.018034361481</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="P4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9371.018034361485</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26494,10 +26496,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393045.365296558</v>
+        <v>-393045.3652965579</v>
       </c>
       <c r="C6" t="n">
-        <v>196922.5139179864</v>
+        <v>196922.5139179866</v>
       </c>
       <c r="D6" t="n">
         <v>196922.5139179867</v>
       </c>
       <c r="E6" t="n">
+        <v>230550.1139179865</v>
+      </c>
+      <c r="F6" t="n">
         <v>230550.1139179867</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>230550.1139179867</v>
+      </c>
+      <c r="H6" t="n">
+        <v>230550.1139179863</v>
+      </c>
+      <c r="I6" t="n">
         <v>230550.1139179865</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>54126.89472539361</v>
+      </c>
+      <c r="K6" t="n">
         <v>230550.1139179866</v>
       </c>
-      <c r="H6" t="n">
-        <v>230550.1139179867</v>
-      </c>
-      <c r="I6" t="n">
-        <v>230550.1139179867</v>
-      </c>
-      <c r="J6" t="n">
-        <v>54126.89472539372</v>
-      </c>
-      <c r="K6" t="n">
-        <v>230550.1139179865</v>
-      </c>
       <c r="L6" t="n">
-        <v>230550.1139179868</v>
+        <v>230550.1139179866</v>
       </c>
       <c r="M6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179864</v>
       </c>
       <c r="N6" t="n">
         <v>230550.1139179867</v>
       </c>
       <c r="O6" t="n">
+        <v>230550.1139179865</v>
+      </c>
+      <c r="P6" t="n">
         <v>230550.1139179867</v>
-      </c>
-      <c r="P6" t="n">
-        <v>230550.1139179866</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,31 +26749,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="H3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26814,10 +26816,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32224,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33646,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35428,7 +35430,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751875</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>54.37527471535621</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
         <v>297.223041434342</v>
@@ -37862,13 +37864,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
